--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sreyas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arpit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rahul" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +516,54 @@
         <v>45352</v>
       </c>
       <c r="F2" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45357</v>
+      </c>
+      <c r="F3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45357</v>
+      </c>
+      <c r="F4" t="n">
         <v>250</v>
       </c>
     </row>
@@ -529,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +666,157 @@
         <v>250</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>oo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45357</v>
+      </c>
+      <c r="F4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>yu</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45357</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ii</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>oo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45357</v>
+      </c>
+      <c r="F3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45357</v>
+      </c>
+      <c r="F4" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sreyas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arpit" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rahul" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rohit" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +566,54 @@
       </c>
       <c r="F4" t="n">
         <v>250</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AFC Ajax U 18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FC Groningen U18</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F5" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F6" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +736,54 @@
         <v>45357</v>
       </c>
       <c r="F4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F5" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F6" t="n">
         <v>500</v>
       </c>
     </row>
@@ -701,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,6 +914,107 @@
         <v>300</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F2" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -2,25 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sreyas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rohit" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arpit" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rahul" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rohit" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shourjo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sreyas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vishal" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ankit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rahul" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arvind" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
@@ -32,7 +35,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,23 +57,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -85,15 +99,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Pandas" xfId="1" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pandas" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -456,13 +470,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -499,46 +513,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tuu</t>
+          <t>Roots Yellow U15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>yuu</t>
+          <t>Snipers FC A U15</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>1378</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>45352</v>
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>EQO Sports FA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>BYFL U15</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>1429</v>
       </c>
       <c r="D3" t="n">
         <v>90</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>45357</v>
+      <c r="E3" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F3" t="n">
         <v>500</v>
@@ -547,72 +561,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rr</t>
+          <t>Worli Warriors Academy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ss</t>
+          <t>South Mumbai FA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45357</v>
+        <v>1754</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AFC Ajax U 18</t>
+          <t>Income Tax FC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FC Groningen U18</t>
+          <t>BTM FC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1670</v>
+        <v>1575</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45360</v>
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>45360</v>
-      </c>
-      <c r="F6" t="n">
         <v>500</v>
       </c>
     </row>
@@ -633,35 +625,35 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -670,22 +662,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>Ajax JO13 - 2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Vitesse JO13-1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>1737</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45352</v>
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F2" t="n">
         <v>500</v>
@@ -694,46 +686,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>PSV U16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>AFC Ajax U16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1745</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45352</v>
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pp</t>
+          <t>AFC Ajax U 18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>oo</t>
+          <t>PSV U18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1740</v>
       </c>
       <c r="D4" t="n">
         <v>90</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>45357</v>
+      <c r="E4" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F4" t="n">
         <v>500</v>
@@ -742,46 +734,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>RWF FC BDFA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>Income Tax FC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>1760</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45360</v>
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>Bul7s FA U15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>Sporthood FC U15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>1428</v>
       </c>
       <c r="D6" t="n">
         <v>90</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45360</v>
+        <v>45372</v>
       </c>
       <c r="F6" t="n">
         <v>500</v>
@@ -804,35 +796,35 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -841,22 +833,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>yu</t>
+          <t>The Sports School U15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>yo</t>
+          <t>BIFA U15</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1380</v>
       </c>
       <c r="D2" t="n">
         <v>90</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>45357</v>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F2" t="n">
         <v>500</v>
@@ -865,74 +857,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ii</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>oo</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Less than 60</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45357</v>
+        <v>1749</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nn</t>
+          <t>BTM FC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>Bangalore Eagles FC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Less than 60</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45357</v>
+        <v>1756</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Hungry Hearts Soccer School</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>Barca Academy Grana</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>1698</v>
       </c>
       <c r="D5" t="n">
         <v>90</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45360</v>
+        <v>45372</v>
       </c>
       <c r="F5" t="n">
         <v>500</v>
@@ -949,41 +937,191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="A6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vitesse JO14-1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ajax JO14</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1744</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ADO Den Haag JO13-1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ajax JO13-1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Agorc FC BDFA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Income Tax FC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1759</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mysore VFA U15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sniper FC B U15</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>45372</v>
+      </c>
+      <c r="F5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -992,27 +1130,398 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>Roots Red U15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>Kickstart B U15</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1376</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Less than 60</t>
         </is>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>45360</v>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
       </c>
       <c r="F2" t="n">
         <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45372</v>
+      </c>
+      <c r="F3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D-Gardens Utd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gulf Utd FC 3rd Div</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EQO Sports FA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Black Panthers TF U15</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1374</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45372</v>
+      </c>
+      <c r="F3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gulf United</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dibba</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>All Stars Team A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>All Stars Team B</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1691</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Income Tax FC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Roots FS BDFA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1757</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BTM FC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sri Gajanana FC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dyes FC BDFA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Income Tax FC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1758</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PEC Zwolle U17</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45372</v>
+      </c>
+      <c r="F4" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -98,10 +98,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,30 @@
         <v>45371</v>
       </c>
       <c r="F5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Income Tax FC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parikrama FC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1574</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F6" t="n">
         <v>500</v>
       </c>
     </row>
@@ -628,32 +652,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -772,7 +796,7 @@
       <c r="D6" t="n">
         <v>90</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>45372</v>
       </c>
       <c r="F6" t="n">
@@ -790,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,32 +823,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -919,11 +943,37 @@
       <c r="D5" t="n">
         <v>90</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>45372</v>
       </c>
       <c r="F5" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sporting Mumbai</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barca academy Grana U 13</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F6" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -937,41 +987,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A6:G6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -1074,7 +1124,52 @@
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="4" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>De Graafschap U18</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1762</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F6" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AFC Ajax U16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FC Dordrecht U16</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1763</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F7" t="n">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1096,32 +1191,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -1170,7 +1265,7 @@
       <c r="D3" t="n">
         <v>90</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>45372</v>
       </c>
       <c r="F3" t="n">
@@ -1183,105 +1278,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>team_a_name</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>team_b_name</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>match_id</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>game_time</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>current_date</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>renumeration</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>D-Gardens Utd</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gulf Utd FC 3rd Div</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1741</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>45371</v>
-      </c>
-      <c r="F2" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EQO Sports FA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Black Panthers TF U15</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1374</v>
-      </c>
-      <c r="D3" t="n">
-        <v>90</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45372</v>
-      </c>
-      <c r="F3" t="n">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1296,32 +1292,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -1330,6 +1326,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>D-Gardens Utd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gulf Utd FC 3rd Div</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EQO Sports FA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Black Panthers TF U15</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1374</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>45372</v>
+      </c>
+      <c r="F3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Gulf United</t>
         </is>
       </c>
@@ -1398,6 +1517,54 @@
         <v>45371</v>
       </c>
       <c r="F4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>De Graafschap U18</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1762</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F5" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sporthood FC U15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stallions FC U15</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F6" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1421,32 +1588,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>team_a_name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>team_b_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>match_id</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>game_time</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>current_date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>renumeration</t>
         </is>
@@ -1517,7 +1684,7 @@
       <c r="D4" t="n">
         <v>90</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="4" t="n">
         <v>45372</v>
       </c>
       <c r="F4" t="n">

--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rohit" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,6 +39,12 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,7 +100,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -104,6 +110,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -471,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +707,7 @@
       <c r="D9" t="n">
         <v>90</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="4" t="n">
         <v>45378</v>
       </c>
       <c r="F9" t="n">
@@ -724,7 +731,7 @@
       <c r="D10" t="n">
         <v>90</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F10" t="n">
@@ -750,7 +757,7 @@
           <t>Less than 60</t>
         </is>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F11" t="n">
@@ -774,11 +781,313 @@
       <c r="D12" t="n">
         <v>90</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="4" t="n">
         <v>45381</v>
       </c>
       <c r="F12" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mumbai City FC B</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U13</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School U-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CFCI U13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>45383</v>
+      </c>
+      <c r="F14" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Roots FC U17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Young Blues Elite FC U17</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mira Bhayander Football Club</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CFCI U13</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1802</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer school U15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bravo Football U15</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1695</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F17" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Footie First u13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>India Rush U13</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ajax JO17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CF Pachuca O17</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Masfout</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gulf United FC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ajax JO13-1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PSV O13</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1847</v>
+      </c>
+      <c r="D21" t="n">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F21" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Footie First U-15</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1859</v>
+      </c>
+      <c r="D22" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F22" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1879</v>
+      </c>
+      <c r="D23" t="n">
+        <v>90</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F23" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NYN Sports Academy</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School U-13</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F24" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,11 +1278,233 @@
       <c r="D7" t="n">
         <v>90</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F7" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ajax JO14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sparta U14</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1783</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F8" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hobro IK</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1794</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>45382</v>
+      </c>
+      <c r="F9" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hobro IK</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AC Horsens</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1793</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>45382</v>
+      </c>
+      <c r="F10" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FC Volendam U18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ajax U18</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Parikrama FC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bangalore City FC A Div</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D12" t="n">
+        <v>90</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F12" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mira Road Youngsters FA U13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau U13</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ajax JO17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PSG O17</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F14" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Feyenoord U16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ajax U16</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Footie First U-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1862</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F16" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,7 +1749,7 @@
       <c r="D9" t="n">
         <v>90</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="4" t="n">
         <v>45378</v>
       </c>
       <c r="F9" t="n">
@@ -1242,7 +1773,7 @@
       <c r="D10" t="n">
         <v>90</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="4" t="n">
         <v>45378</v>
       </c>
       <c r="F10" t="n">
@@ -1266,10 +1797,288 @@
       <c r="D11" t="n">
         <v>90</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Soccerstar India</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1703</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F12" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CFCI U13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1813</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>VR Football Academy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Stellar Football Academy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F14" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CFCI X U13</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1816</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Income Tax FC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Blitz FC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Income Tax FC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sri Gajanana FC</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F17" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ajax JO17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FK Partizan O17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TSW White 2009</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi U14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ajax U14</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Spurs Football Academy U-15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1858</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F21" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FC Volendam U17</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1877</v>
+      </c>
+      <c r="D22" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F22" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1284,13 +2093,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="23.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -1583,7 +2392,7 @@
           <t>Less than 60</t>
         </is>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="4" t="n">
         <v>45379</v>
       </c>
       <c r="F12" t="n">
@@ -1607,15 +2416,292 @@
       <c r="D13" t="n">
         <v>90</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F13" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hobro IK</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HB Koege</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F14" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hobro IK</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1795</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F15" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mumbai City FC B U-15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1806</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BTM FC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bangalore City FC - A Div</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>45385</v>
+      </c>
+      <c r="F17" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>The Sports School U17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FX FA U17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>45386</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ajax jo17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>fk partizan o17</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1839</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>45387</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TSP Red 2008</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1841</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>45389</v>
+      </c>
+      <c r="F20" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FC Utrecht JO15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ajax jo15</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D21" t="n">
+        <v>90</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>45391</v>
+      </c>
+      <c r="F21" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F22" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ajax JO14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Feyenoord JO14</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1874</v>
+      </c>
+      <c r="D23" t="n">
+        <v>90</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45393</v>
+      </c>
+      <c r="F23" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jong Ajax U16 Women</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IJburg U16 (f)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F24" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1625,7 +2711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,7 +2846,7 @@
           <t>Less than 60</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>45378</v>
       </c>
       <c r="F5" t="n">
@@ -1784,11 +2870,63 @@
       <c r="D6" t="n">
         <v>90</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>45381</v>
       </c>
       <c r="F6" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>45383</v>
+      </c>
+      <c r="F7" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dsouza FA U13</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Footie First U13</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1843</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F8" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,7 +3095,7 @@
       <c r="D6" t="n">
         <v>90</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F6" t="n">
@@ -1981,11 +3119,193 @@
       <c r="D7" t="n">
         <v>90</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>45381</v>
       </c>
       <c r="F7" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MRUFC U17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Young Blues Elite FC U17</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1787</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>45383</v>
+      </c>
+      <c r="F8" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CFCI U15</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1807</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mumbai City FC B U13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Footie First</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Footie First U15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Spurs FA U15</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spurs FA U13</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F12" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau U13</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSE BFC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CFCI X Men U-13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F14" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +3319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:F9"/>
@@ -2250,7 +3570,7 @@
       <c r="D10" t="n">
         <v>90</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="4" t="n">
         <v>45378</v>
       </c>
       <c r="F10" t="n">
@@ -2274,11 +3594,185 @@
       <c r="D11" t="n">
         <v>90</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="4" t="n">
         <v>45381</v>
       </c>
       <c r="F11" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Alchemy IFA U15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Snipers FC A U15</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1422</v>
+      </c>
+      <c r="D12" t="n">
+        <v>90</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F12" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VAS FA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kickstart B</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1493</v>
+      </c>
+      <c r="D13" t="n">
+        <v>90</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F13" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>All stars A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>All stars B</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1819</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F14" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Roots FC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sreenidi Deccan</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mira Bhayander Football Club U13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Spurs Football Academy U13</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1734</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>All Stars Team A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>All Stars Team B</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1854</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F17" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana U13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VR Football Academy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2292,9 +3786,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +3965,7 @@
       <c r="D7" t="n">
         <v>90</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>45378</v>
       </c>
       <c r="F7" t="n">
@@ -2495,11 +3989,291 @@
       <c r="D8" t="n">
         <v>90</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F8" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prime FA U17</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Raman SA U17</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1786</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jong Ajax U16 Women</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>California U16</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1791</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F10" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Alchemy Ignis U17</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roots FC U17</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1788</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Alchemy Ignis U17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Raman SA U17</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1811</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F12" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Footie First U15</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1768</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSE BFC U13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dsouza FA U13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1799</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F14" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ajax JO17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Manchester City O17</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1836</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FC Groningen U18</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ajax U18</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ajax JO13-2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam U13</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F17" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Alchemy Ignis U17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Young Blues Elite FC U17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1873</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Soccerstar India</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lemon Break U13</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1871</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +4287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2624,7 +4398,7 @@
           <t>Less than 60</t>
         </is>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="4" t="n">
         <v>45378</v>
       </c>
       <c r="F4" t="n">
@@ -2650,7 +4424,7 @@
           <t>Less than 60</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>45380</v>
       </c>
       <c r="F5" t="n">
@@ -2674,10 +4448,284 @@
       <c r="D6" t="n">
         <v>90</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>45381</v>
       </c>
       <c r="F6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1657</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F7" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spurs Football Academy U-15</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>45382</v>
+      </c>
+      <c r="F8" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy B U-15</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>45384</v>
+      </c>
+      <c r="F9" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mira Road Youngsters FA U13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Soccerstar India U13</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer school U13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mira Road Youngsters FA U13</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mumbai city FC B U13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sporting Mumbai U13</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F12" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sporting Mumbai U13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RFYC Development Squad U13</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1726</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gulf United FC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>City FC</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1852</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F14" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Raman SA U17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BBFS Residential Academy U17</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1872</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45394</v>
+      </c>
+      <c r="F16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1878</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F17" t="n">
         <v>500</v>
       </c>
     </row>

--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rahul" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arvind" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gorripotu" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hari" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -478,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,6 +1088,523 @@
         <v>45395</v>
       </c>
       <c r="F24" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana U13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Soccer Academy </t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Supra 2008 ACE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>International Soccer Revolution U16</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>45396</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Supra 2008 ACE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Az Alkmaar U16</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Young Blues U15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sporthood</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D28" t="n">
+        <v>90</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F28" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>U13 Trial White</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>U13 Trial Yellow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F29" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>U15 Trials Orange</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>u15 Trials Yellow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1929</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F30" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mira Road Youngsters FA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>barca Academy Grana U13</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F31" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sporthood FC U15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Roots FC Yellow U15</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F32" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Titans FC</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Technico FF</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F33" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NEC U13</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ajax JO13 - 2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1963</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F34" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ronaldo FC U!3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Youth Sports Trust U13</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F35" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TSP 2009 Black</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners 2009</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1956</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F36" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BSS U15</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FC Bengaluru Utd U15</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1972</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F37" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FC Utrecht U18</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AFC Ajax U 18</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F38" t="n">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>team_a_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>team_b_name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>renumeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Roots FC U21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GMSC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BSS U15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ronaldo FC U15</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau U13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F4" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soccerstar India</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana U13</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F5" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1101,7 +1619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,6 +2022,284 @@
         <v>45394</v>
       </c>
       <c r="F16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hercules O17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1881</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F17" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ajax JO15-1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PSV O15</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D18" t="n">
+        <v>90</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45396</v>
+      </c>
+      <c r="F18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ajax JO13 - 2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vitesse JO13-1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D19" t="n">
+        <v>90</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F19" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FXFA U13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Young Blues Elite A U13</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F20" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>JSW BFC Academy U13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>youth Sports Trust U13</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F21" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ajax JO14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PSV JO14-1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D22" t="n">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F22" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>U17 Trials Green</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>U17 Trials White</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Supra 2010 Alpha</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SEFA 2010</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1959</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F24" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AFC Ajax U 18</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vitesse U18</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1964</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SC Heerenveen O13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ajax JO13-1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano De Madrid S.A.D A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CD Leganes S.A.D A</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F27" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1518,7 +2314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,6 +2876,290 @@
       </c>
       <c r="F22" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Football School of India U13</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Spurs Football Academy U13</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1867</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ajax JO13-1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D24" t="n">
+        <v>90</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F24" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NYN sports academy</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Young Blues Elite FC U17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>alchemy Aqua U17</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>U15 Trials White</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>U15 Trials Green</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Just Play Academy U13</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>young Blues Elite B U13</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Garhwal United Women's Team</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pudhuvai Unicorns</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F29" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TSP 2008 White</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sydney FC 2008</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F30" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Supra 2013 ACE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PSG Asensio</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F31" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School U-13</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CFCI X Men U13</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F32" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Gulf United</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F33" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +3173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -2697,6 +3777,276 @@
       </c>
       <c r="F24" t="n">
         <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AFC Ajax U16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PSV U16</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1884</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45397</v>
+      </c>
+      <c r="F25" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>U13 Trial Green</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>U13 Trial Orange</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Diablos FC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Technico FF</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1926</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U13 Trial Orange</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>U13 Trial Yellow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>United Football Club</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gulf United</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F29" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar U17</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1953</v>
+      </c>
+      <c r="D30" t="n">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F30" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Supra Selects 2011</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Casa Real 2011</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D31" t="n">
+        <v>90</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F31" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AZ JO16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AFC Ajax U16</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1962</v>
+      </c>
+      <c r="D32" t="n">
+        <v>90</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>45403</v>
+      </c>
+      <c r="F32" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PSV JO17-1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1969</v>
+      </c>
+      <c r="D33" t="n">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>45404</v>
+      </c>
+      <c r="F33" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Worli Sports Club</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kapadia Nagar</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D34" t="n">
+        <v>90</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>45405</v>
+      </c>
+      <c r="F34" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Team Celeb</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Team Other</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D35" t="n">
+        <v>90</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>45406</v>
+      </c>
+      <c r="F35" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +4061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2926,6 +4276,110 @@
         <v>45392</v>
       </c>
       <c r="F8" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mira Bhayandar football club</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1870</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mira Bhayander Football Club</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>football school of India u13</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1814</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mumbai City FC B</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>U17 Trials Blue</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>U17 Trials Yellow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F12" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2940,7 +4394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,6 +4759,236 @@
         <v>45395</v>
       </c>
       <c r="F14" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CFCI X Men U13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1863</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45396</v>
+      </c>
+      <c r="F15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gulf Utd FC 3rd Div</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Al Ethihad</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Prime FA U17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Sports School U17</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F17" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CFCI U13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>d'Souza Football Academy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Muthoot FA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> roots FC U21</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D19" t="n">
+        <v>90</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F19" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Garhwal United Women's Team</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SAI Kokrajhar (Assam)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F20" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Young Blues U15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dash Athlectics U15</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F21" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lemon Break Sports U13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CFCI X Men U13</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1979</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F22" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mira Bhayander Football Club</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Footie First</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1978</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F23" t="n">
         <v>300</v>
       </c>
     </row>
@@ -3319,7 +5003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:F9"/>
@@ -3772,6 +5456,186 @@
         <v>45395</v>
       </c>
       <c r="F18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>India Rush SC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VR Football Academy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45396</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Supra 2008 ACE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Southampton U16</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1891</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>All Stars Team A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bundesliga Legends</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F21" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U15 Trials Orange</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>U15 Trials Green</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F22" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TSP 2008 Black</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners 2008</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Super Div Trials Green</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Super Div Trials Yellow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F24" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Young Blues Elite B U13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mavericks U13</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F25" t="n">
         <v>300</v>
       </c>
     </row>
@@ -3786,7 +5650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -4273,6 +6137,210 @@
         <v>45395</v>
       </c>
       <c r="F19" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ajax JO14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vitesse JO14-1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1886</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PSV U18</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AFC Ajax U 18</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D21" t="n">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F21" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NYN Sports Academy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Spurs Football Academy U13</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1718</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F22" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau U13</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>india Rush SC</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Garhwal United Women's Team</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AIPL (Bihar)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F24" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ronaldo FC U!3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Roots FC Red U13</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1917</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Garhwal United Women's Team</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mumbai Knights (Maharashtra)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IOT FC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mumbai City FC</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1971</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F27" t="n">
         <v>300</v>
       </c>
     </row>
@@ -4287,7 +6355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4729,6 +6797,314 @@
         <v>500</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SSE BFC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>India Rush SC</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1817</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45395</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Al Dhaid</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gulf United</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1853</v>
+      </c>
+      <c r="D19" t="n">
+        <v>90</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F19" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Raman SA U17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alchemy Terra U17</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F20" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Supra 2013 - Alpha</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PMFC U13</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D21" t="n">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45400</v>
+      </c>
+      <c r="F21" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Spurs Football Academy U13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>the Soccer Academy U13</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45401</v>
+      </c>
+      <c r="F22" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>U17 Trials Yellow</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>U17 Trials white</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1942</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JSW BFC Academy U13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mavericks U13</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F24" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nakshatra FA U13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Young Blues Elite B U13</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1952</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Young Blues Elite B U13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ronaldo FC U!3</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Super Div Trials Orange</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Super Div Trials Yellow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dash Athletics U13</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>United Pro FS U13</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sporthood FC U15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ronaldo FC U15</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1973</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>45407</v>
+      </c>
+      <c r="F29" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -3173,7 +3173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -4046,6 +4046,80 @@
         <v>45406</v>
       </c>
       <c r="F35" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CFCI U13</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Football School of India U13</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>45408</v>
+      </c>
+      <c r="F36" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Supra 2009 - ACE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>North Van BCSPL U19</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D37" t="n">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>45409</v>
+      </c>
+      <c r="F37" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Feyenoord U18</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AFC Ajax U 18</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2028</v>
+      </c>
+      <c r="D38" t="n">
+        <v>90</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>45410</v>
+      </c>
+      <c r="F38" t="n">
         <v>500</v>
       </c>
     </row>

--- a/stepout_qc_code/write_string/match_renum_detials.xlsx
+++ b/stepout_qc_code/write_string/match_renum_detials.xlsx
@@ -3173,7 +3173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -4120,6 +4120,228 @@
         <v>45410</v>
       </c>
       <c r="F38" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam U15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ajax JO15-1</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2037</v>
+      </c>
+      <c r="D39" t="n">
+        <v>90</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>45411</v>
+      </c>
+      <c r="F39" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nita FA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pune Krida PA</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>90</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>45413</v>
+      </c>
+      <c r="F40" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Roots Red U15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Dash Athlectics U15</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2036</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>45414</v>
+      </c>
+      <c r="F41" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Young Blues Elite FC U17</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Raman SA U17</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>45416</v>
+      </c>
+      <c r="F42" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ajax JO15-1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Academy Fukushima U15</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2074</v>
+      </c>
+      <c r="D43" t="n">
+        <v>90</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>45417</v>
+      </c>
+      <c r="F43" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Loco. Tbilisi</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FC Gareji Sagarejo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2089</v>
+      </c>
+      <c r="D44" t="n">
+        <v>90</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>45420</v>
+      </c>
+      <c r="F44" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RFYC Development Squad</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mumbai City FC B</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Less than 60</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>45421</v>
+      </c>
+      <c r="F45" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FC Utrecht U17</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ajax JO17-1</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2097</v>
+      </c>
+      <c r="D46" t="n">
+        <v>90</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>45422</v>
+      </c>
+      <c r="F46" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Feyenoord O17</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aax JO17-1</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2107</v>
+      </c>
+      <c r="D47" t="n">
+        <v>90</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>45425</v>
+      </c>
+      <c r="F47" t="n">
         <v>500</v>
       </c>
     </row>
